--- a/docs/ReceiptBagUnitTest.xlsx
+++ b/docs/ReceiptBagUnitTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kayle\OneDrive\Documents\CS372\week1\cs372.hurst\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8969A3A-08D2-4E76-A42C-A93338344A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30E3A480-0206-4DFE-AB75-DEDFA5CC8DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{47BF89DF-1999-449D-99E8-5FB82A9EB84A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
   <si>
     <t>:</t>
   </si>
@@ -124,6 +124,36 @@
   </si>
   <si>
     <t>Unit Tests for &lt;ReceiptBag.h&gt;</t>
+  </si>
+  <si>
+    <t>Test ID: Receipt Behavior</t>
+  </si>
+  <si>
+    <t>There are already 10 items in bag</t>
+  </si>
+  <si>
+    <t>adding an 11th item to the bag</t>
+  </si>
+  <si>
+    <t>"11"</t>
+  </si>
+  <si>
+    <t>There are now 11 items in the bag</t>
+  </si>
+  <si>
+    <t>Test ID: Pop Behavior</t>
+  </si>
+  <si>
+    <t>11 items in bag, last item is '9'</t>
+  </si>
+  <si>
+    <t>aBagOfIntegers.pop();</t>
+  </si>
+  <si>
+    <t>10 items in bag</t>
+  </si>
+  <si>
+    <t>"There are 10 items in your bag, again."</t>
   </si>
 </sst>
 </file>
@@ -184,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -193,6 +223,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -509,9 +542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624DA36C-0A1A-4E2A-B0F6-993ABBADAE82}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -767,6 +802,80 @@
         <v>6</v>
       </c>
     </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
